--- a/Location_based_analysis/under_wind/wsl_rain_process.xlsx
+++ b/Location_based_analysis/under_wind/wsl_rain_process.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\under_wind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928A305-D2C0-4C6B-9B76-7D486D250B4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2D821-0137-4725-8774-9EF36645D535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,42 +51,6 @@
     <t>R0008</t>
   </si>
   <si>
-    <t>0716-0718</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0803-0809</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0709-0713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0722-0727</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0811-0817</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0819-0823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0829-0901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0905-0909</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0911-0917</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +73,33 @@
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0709-0713</t>
+  </si>
+  <si>
+    <t>0716-0718</t>
+  </si>
+  <si>
+    <t>0722-0727</t>
+  </si>
+  <si>
+    <t>0803-0809</t>
+  </si>
+  <si>
+    <t>0811-0817</t>
+  </si>
+  <si>
+    <t>0819-0823</t>
+  </si>
+  <si>
+    <t>0829-0901</t>
+  </si>
+  <si>
+    <t>0905-0909</t>
+  </si>
+  <si>
+    <t>0911-0917</t>
   </si>
 </sst>
 </file>
@@ -452,7 +434,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -462,7 +444,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -489,48 +471,48 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>-0.54856675700000013</v>
+        <v>2.6642209926701423</v>
       </c>
       <c r="C2">
-        <v>-5.4843786799999998</v>
+        <v>-1.6593677507890026</v>
       </c>
       <c r="D2">
-        <v>-2.4986968689999998</v>
+        <v>0.8788987337080445</v>
       </c>
       <c r="E2">
-        <v>-3.7526211049999998</v>
+        <v>-0.77669662066399292</v>
       </c>
       <c r="F2">
-        <v>-2.7597067069999994</v>
+        <v>7.1934558862977394E-2</v>
       </c>
       <c r="G2">
-        <v>-2.3830786740000001</v>
+        <v>1.0073768309793674</v>
       </c>
       <c r="H2">
-        <v>-1.8652719629999999</v>
+        <v>1.173360973240271</v>
       </c>
       <c r="I2">
-        <v>-4.3142492910000003</v>
+        <v>-0.65773700925423606</v>
       </c>
       <c r="J2">
         <v>33.75</v>
@@ -553,31 +535,31 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>6.4230844430000005</v>
+        <v>9.6358721926701421</v>
       </c>
       <c r="C3">
-        <v>8.4519103720000004</v>
+        <v>12.276921301210997</v>
       </c>
       <c r="D3">
-        <v>5.5778313539999989</v>
+        <v>8.9554269567080436</v>
       </c>
       <c r="E3">
-        <v>6.3451413340000009</v>
+        <v>9.3210658183360078</v>
       </c>
       <c r="F3">
-        <v>-0.94939007399999964</v>
+        <v>1.8822511918629772</v>
       </c>
       <c r="G3">
-        <v>5.629874236</v>
+        <v>9.020329740979367</v>
       </c>
       <c r="H3">
-        <v>1.8102279250000004</v>
+        <v>4.8488608612402713</v>
       </c>
       <c r="I3">
-        <v>11.333120973</v>
+        <v>14.989633254745764</v>
       </c>
       <c r="J3">
         <v>45</v>
@@ -600,31 +582,31 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>-2.7644281419999999</v>
+        <v>0.4483596076701426</v>
       </c>
       <c r="C4">
-        <v>-2.8229180279999992</v>
+        <v>1.002092901210998</v>
       </c>
       <c r="D4">
-        <v>-3.6916240580000004</v>
+        <v>-0.31402845529195611</v>
       </c>
       <c r="E4">
-        <v>-2.1500667509999993</v>
+        <v>0.82585773333600754</v>
       </c>
       <c r="F4">
-        <v>-2.5288046579999994</v>
+        <v>0.30283660786297739</v>
       </c>
       <c r="G4">
-        <v>-4.2165365050000005</v>
+        <v>-0.82608100002063312</v>
       </c>
       <c r="H4">
-        <v>-3.8730861000000001</v>
+        <v>-0.83445316375972922</v>
       </c>
       <c r="I4">
-        <v>-1.384016926000001</v>
+        <v>2.2724953557457632</v>
       </c>
       <c r="J4" s="2">
         <v>45</v>
@@ -653,31 +635,31 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>7.3914014990000023</v>
+        <v>10.604189248670146</v>
       </c>
       <c r="C5">
-        <v>-2.9470355189999999</v>
+        <v>0.87797541021099734</v>
       </c>
       <c r="D5">
-        <v>-2.575015171</v>
+        <v>0.80258043170804427</v>
       </c>
       <c r="E5">
-        <v>3.9395494340000021</v>
+        <v>6.9154739183360086</v>
       </c>
       <c r="F5">
-        <v>-4.0335376669999992</v>
+        <v>-1.2018964011370223</v>
       </c>
       <c r="G5">
-        <v>7.0241860639999967</v>
+        <v>10.414641568979365</v>
       </c>
       <c r="H5">
-        <v>-5.5853510320000002</v>
+        <v>-2.5467180957597293</v>
       </c>
       <c r="I5">
-        <v>-1.4992528260000006</v>
+        <v>2.1572594557457636</v>
       </c>
       <c r="J5" s="2">
         <v>56.25</v>
@@ -706,31 +688,31 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>5.156225469999999</v>
+        <v>8.3690132196701406</v>
       </c>
       <c r="C6">
-        <v>4.2995432640000004</v>
+        <v>8.1245541932109973</v>
       </c>
       <c r="D6">
-        <v>4.1929838009999996</v>
+        <v>7.5705794037080434</v>
       </c>
       <c r="E6">
-        <v>5.5433931740000011</v>
+        <v>8.5193176583360071</v>
       </c>
       <c r="F6">
-        <v>7.4369398059999998</v>
+        <v>10.268581071862977</v>
       </c>
       <c r="G6">
-        <v>3.3187160250000001</v>
+        <v>6.7091715299793675</v>
       </c>
       <c r="H6">
-        <v>6.9857772040000015</v>
+        <v>10.024410140240272</v>
       </c>
       <c r="I6">
-        <v>6.8914596840000009</v>
+        <v>10.547971965745765</v>
       </c>
       <c r="J6" s="2">
         <v>56.25</v>
@@ -759,31 +741,31 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7.1102273140000003</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.158543237</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4.4568272010000012</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.9861228660000005</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.6464070839999998</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.5290241700000005</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.829669547</v>
-      </c>
-      <c r="I7" s="2">
-        <v>12.769990493</v>
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>10.323015063670143</v>
+      </c>
+      <c r="C7">
+        <v>13.983554166210997</v>
+      </c>
+      <c r="D7">
+        <v>7.8344228037080459</v>
+      </c>
+      <c r="E7">
+        <v>7.9620473503360074</v>
+      </c>
+      <c r="F7">
+        <v>8.4780483498629771</v>
+      </c>
+      <c r="G7">
+        <v>8.9194796749793674</v>
+      </c>
+      <c r="H7">
+        <v>7.8683024832402708</v>
+      </c>
+      <c r="I7">
+        <v>16.426502774745764</v>
       </c>
       <c r="J7" s="2">
         <v>45</v>
@@ -812,31 +794,31 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>17.636234104000003</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24.528620212</v>
-      </c>
-      <c r="D8" s="2">
-        <v>22.684670467000004</v>
-      </c>
-      <c r="E8" s="2">
-        <v>17.721668785999999</v>
-      </c>
-      <c r="F8" s="2">
-        <v>20.651367039999997</v>
-      </c>
-      <c r="G8" s="2">
-        <v>16.551624406999998</v>
-      </c>
-      <c r="H8" s="2">
-        <v>22.582460794999999</v>
-      </c>
-      <c r="I8" s="2">
-        <v>26.616669810000001</v>
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>20.849021853670145</v>
+      </c>
+      <c r="C8">
+        <v>28.353631141210997</v>
+      </c>
+      <c r="D8">
+        <v>26.062266069708048</v>
+      </c>
+      <c r="E8">
+        <v>20.697593270336007</v>
+      </c>
+      <c r="F8">
+        <v>23.483008305862974</v>
+      </c>
+      <c r="G8">
+        <v>19.942079911979366</v>
+      </c>
+      <c r="H8">
+        <v>25.621093731240272</v>
+      </c>
+      <c r="I8">
+        <v>30.273182091745767</v>
       </c>
       <c r="J8" s="2">
         <v>33.75</v>
@@ -865,31 +847,31 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.85627999899999929</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.73345621700000041</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.5447605950000005</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.767900265</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.576884277</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.85223189200000071</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.2492161880000001</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1.7022225799999997</v>
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>4.0690677486701414</v>
+      </c>
+      <c r="C9">
+        <v>4.5584671462109974</v>
+      </c>
+      <c r="D9">
+        <v>4.9223561977080443</v>
+      </c>
+      <c r="E9">
+        <v>4.7438247493360066</v>
+      </c>
+      <c r="F9">
+        <v>5.4085255428629768</v>
+      </c>
+      <c r="G9">
+        <v>4.2426873969793686</v>
+      </c>
+      <c r="H9">
+        <v>4.287849124240271</v>
+      </c>
+      <c r="I9">
+        <v>5.3587348617457637</v>
       </c>
       <c r="J9" s="2">
         <v>56.25</v>
@@ -912,31 +894,31 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.5791856020000012</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.9790120420000008</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.6403718279999988</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.013906744999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>-0.61858087800000039</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.32079692400000015</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.15961998799999977</v>
-      </c>
-      <c r="I10" s="2">
-        <v>7.0612197960000032</v>
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>4.7919733516701442</v>
+      </c>
+      <c r="C10">
+        <v>10.804022971210998</v>
+      </c>
+      <c r="D10">
+        <v>5.0179674307080431</v>
+      </c>
+      <c r="E10">
+        <v>6.9898312293360059</v>
+      </c>
+      <c r="F10">
+        <v>2.2130603878629764</v>
+      </c>
+      <c r="G10">
+        <v>3.7112524289793676</v>
+      </c>
+      <c r="H10">
+        <v>3.1982529242402706</v>
+      </c>
+      <c r="I10">
+        <v>10.717732077745767</v>
       </c>
       <c r="J10" s="2">
         <v>56.25</v>
